--- a/Cura health.xlsx
+++ b/Cura health.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -950,20 +950,64 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Test Case ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Test Case Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Expected Results</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Actual Results</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pass/Fail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
       <t>TC001</t>
@@ -972,9 +1016,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
       <t>Verify successful Book Appointment</t>
@@ -983,136 +1027,31 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2. Click on Facility dropdown </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3. Select Medicaid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">4. Enter date "12/05/2024" in datepicker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">5. Enter comment "addadd" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6. Click on Book Appointment button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Successfully booked appointment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User successfully books appointment with valid data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
       <t>TC002</t>
@@ -1121,137 +1060,31 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Verify successful Book Appointment and navigation to Appointment Confirmation page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2. Click on Facility dropdown </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3. Select Medicare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">4. Enter date "12/05/2024" in datepicker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">5. Enter comment "addadd" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6. Click on Book Appointment button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Navigation to Appointment Confirmation page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verify navigation to Appointment Confirmation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User navigates to Appointment Confirmation page after booking appointment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
       <t>TC003</t>
@@ -1260,9 +1093,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
       <t>Verify unsuccessful Book Appointment with empty date</t>
@@ -1271,118 +1104,144 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2. Click on Facility dropdown </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3. Select Medicare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">4. Leave date field empty </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">5. Enter comment "addadd" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6. Click on Book Appointment button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Appointment booking fails with empty date</t>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User cannot book appointment with empty date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TC004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verify navigation to Home page after clicking Home</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User navigates to Home page after clicking Home button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TC005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verify navigation to History page after clicking History</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User navigates to History page after clicking History button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TC006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verify navigation to Profile page after clicking Profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User navigates to Profile page after clicking Profile button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TC007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verify navigation to Home page after clicking Logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User navigates to Home page after clicking Logout button</t>
     </r>
   </si>
 </sst>
@@ -1396,7 +1255,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1405,14 +1264,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF0D0D0D"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1770,15 +1635,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFE3E3E3"/>
       </bottom>
@@ -1786,17 +1645,22 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFE3E3E3"/>
       </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFE3E3E3"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1807,7 +1671,7 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFE3E3E3"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FFE3E3E3"/>
@@ -1825,7 +1689,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,22 +1734,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,218 +1869,214 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2559,209 +2404,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="23.2857142857143" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.5714285714286" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25.4285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" ht="26.25" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="64.5" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="64.5" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="26.25" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="64.5" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="64.5" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="77.25" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="77.25" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="51.75" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75"/>
-    <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="27"/>
+    <row r="12" ht="15.75" spans="1:6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="27"/>
+    <row r="13" ht="15.75" spans="1:6">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="27"/>
+    <row r="14" ht="15.75" spans="1:6">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,94 +2617,156 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="32.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" ht="90" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
+    <row r="2" ht="48" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" ht="77.25" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" ht="63.75" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="77.25" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="4" ht="48" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="48" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="48" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="48" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
